--- a/£ODX.xlsx
+++ b/£ODX.xlsx
@@ -1,42 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D5DB5D-9E95-AC45-AF70-E21C19B18493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410F610C-6310-4204-A304-ED916FBF54B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="1580" windowWidth="33460" windowHeight="16940" activeTab="1" xr2:uid="{825467D3-3248-B14B-9B12-4AD5F9371A66}"/>
+    <workbookView xWindow="915" yWindow="1575" windowWidth="33465" windowHeight="16935" xr2:uid="{825467D3-3248-B14B-9B12-4AD5F9371A66}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Financial Model" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="70">
   <si>
     <t>£ODX</t>
   </si>
@@ -228,6 +218,24 @@
   </si>
   <si>
     <t>Chris Lea</t>
+  </si>
+  <si>
+    <t>Profile</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>IR</t>
+  </si>
+  <si>
+    <t>HQ</t>
+  </si>
+  <si>
+    <t>Founded</t>
+  </si>
+  <si>
+    <t>IPO</t>
   </si>
 </sst>
 </file>
@@ -235,14 +243,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0"/>
-    <numFmt numFmtId="174" formatCode="#,##0.0;[Red]\ \ \-\ #,##0.0\ ;&quot;-&quot;"/>
-    <numFmt numFmtId="176" formatCode="#,##0.0;[Black]\(#,##0.0\)\ "/>
-    <numFmt numFmtId="177" formatCode="#,##0.000"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0"/>
+    <numFmt numFmtId="167" formatCode="#,##0.0;[Red]\ \ \-\ #,##0.0\ ;&quot;-&quot;"/>
+    <numFmt numFmtId="168" formatCode="#,##0.0;[Black]\(#,##0.0\)\ "/>
+    <numFmt numFmtId="169" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -259,60 +267,33 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="2" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -347,6 +328,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -481,74 +468,47 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="174" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -560,7 +520,39 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="168" fontId="3" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -568,7 +560,7 @@
     <cellStyle name="20% - Accent3" xfId="3" builtinId="38"/>
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Per cent" xfId="2" builtinId="5"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -595,8 +587,8 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1001,89 +993,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD013A1E-EAD6-FA4E-BE63-E8C0C468E24B}">
-  <dimension ref="B2:D20"/>
+  <dimension ref="B2:D30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="8.875" style="2"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>3.925E-2</v>
       </c>
-      <c r="D6" s="9"/>
+      <c r="D6" s="8"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="9">
         <v>232.68</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="9">
         <f>C6*C7</f>
         <v>9.1326900000000002</v>
       </c>
       <c r="D8" s="11"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="9">
         <v>0.23777899999999999</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="9">
         <f>0.711896+0.205704</f>
         <v>0.91759999999999997</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="9">
         <f>C9-C10</f>
         <v>-0.67982100000000001</v>
       </c>
@@ -1100,58 +1095,111 @@
       <c r="D12" s="15"/>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="5"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="38"/>
+      <c r="D16" s="18"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="38"/>
+      <c r="D17" s="18"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="36"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="37"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="18"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="42" t="s">
+      <c r="C19" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="37"/>
+      <c r="D19" s="18"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="39"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="41"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="22"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B23" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B24" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="23"/>
+      <c r="D24" s="24"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B25" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="23"/>
+      <c r="D25" s="24"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B26" s="44"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="24"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B27" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="23"/>
+      <c r="D27" s="24"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B28" s="44"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="24"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B29" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="23"/>
+      <c r="D29" s="24"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B30" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="25"/>
+      <c r="D30" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="B23:D23"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="C17:D17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1162,645 +1210,592 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34983201-C7DD-A345-A2A8-5C9C70C90E4C}">
   <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
+      <selection pane="bottomRight" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="1"/>
-    <col min="4" max="4" width="9.1640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="1"/>
-    <col min="6" max="6" width="9.1640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="8.83203125" style="1"/>
-    <col min="13" max="14" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="4" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="2"/>
+    <col min="4" max="4" width="9.125" style="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.875" style="2"/>
+    <col min="6" max="6" width="9.125" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.875" style="2"/>
+    <col min="8" max="8" width="9.125" style="33" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="8.875" style="2"/>
+    <col min="13" max="14" width="9.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="C1" s="22" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="22" t="s">
+      <c r="I1" s="30"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="O1" s="30" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="16"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="28">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="27">
         <v>43555</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="28">
+      <c r="E2" s="30"/>
+      <c r="F2" s="27">
         <v>43921</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="28">
+      <c r="H2" s="27">
         <v>44286</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="27">
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="28">
         <v>43921</v>
       </c>
-      <c r="N2" s="27">
+      <c r="N2" s="28">
         <v>44286</v>
       </c>
       <c r="O2" s="29" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="10"/>
-      <c r="B3" s="16" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="9"/>
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="M3" s="24">
+      <c r="M3" s="34">
         <v>9.3959869999999999</v>
       </c>
-      <c r="N3" s="24">
+      <c r="N3" s="34">
         <v>8.5106210000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="M4" s="25">
+      <c r="M4" s="35">
         <v>3.4878119999999999</v>
       </c>
-      <c r="N4" s="25">
+      <c r="N4" s="35">
         <v>4.247452</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="B5" s="16" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="M5" s="24">
+      <c r="M5" s="34">
         <f>M3-M4</f>
         <v>5.908175</v>
       </c>
-      <c r="N5" s="24">
+      <c r="N5" s="34">
         <f>N3-N4</f>
         <v>4.2631690000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="B6" s="1" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="M6" s="25">
+      <c r="M6" s="35">
         <v>6.547479</v>
       </c>
-      <c r="N6" s="25">
+      <c r="N6" s="35">
         <v>7.9338610000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="M7" s="25">
+      <c r="M7" s="35">
         <v>0.25792999999999999</v>
       </c>
-      <c r="N7" s="25">
+      <c r="N7" s="35">
         <v>0.301817</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="M8" s="25">
+      <c r="M8" s="35">
         <v>2.1878039999999999</v>
       </c>
-      <c r="N8" s="17">
+      <c r="N8" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="B9" s="16" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="M9" s="24">
+      <c r="M9" s="34">
         <f>M5-M6+M7+M8</f>
         <v>1.8064299999999998</v>
       </c>
-      <c r="N9" s="24">
+      <c r="N9" s="34">
         <f>N5-N6+N7-N8</f>
         <v>-3.3688750000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="B10" s="1" t="s">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="M10" s="25">
+      <c r="M10" s="35">
         <v>0.159749</v>
       </c>
-      <c r="N10" s="25">
+      <c r="N10" s="35">
         <v>0.18939700000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="B11" s="16" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="M11" s="24">
+      <c r="M11" s="34">
         <f>M9-M10</f>
         <v>1.6466809999999998</v>
       </c>
-      <c r="N11" s="24">
+      <c r="N11" s="34">
         <f>N9-N10</f>
         <v>-3.5582720000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="B12" s="1" t="s">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="M12" s="25">
+      <c r="M12" s="35">
         <v>-1.2380009999999999</v>
       </c>
-      <c r="N12" s="25">
+      <c r="N12" s="35">
         <v>-1.0306709999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="B13" s="16" t="s">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="M13" s="24">
+      <c r="M13" s="34">
         <f>M11-M12</f>
         <v>2.8846819999999997</v>
       </c>
-      <c r="N13" s="24">
+      <c r="N13" s="34">
         <f>N11-N12</f>
         <v>-2.5276010000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="M15" s="26">
+      <c r="M15" s="37">
         <f>M5/M3</f>
         <v>0.62879769842167721</v>
       </c>
-      <c r="N15" s="26">
+      <c r="N15" s="37">
         <f>N5/N3</f>
         <v>0.50092337562676104</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="B16" s="1" t="s">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="1"/>
-      <c r="M16" s="26">
+      <c r="D16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="M16" s="37">
         <f>M9/M3</f>
         <v>0.19225548098353049</v>
       </c>
-      <c r="N16" s="26">
+      <c r="N16" s="37">
         <f>N9/N3</f>
         <v>-0.39584361705215165</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="B17" s="1" t="s">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="M17" s="26">
+      <c r="M17" s="37">
         <f>M11/M3</f>
         <v>0.17525364817980271</v>
       </c>
-      <c r="N17" s="26">
+      <c r="N17" s="37">
         <f>N11/N3</f>
         <v>-0.4180978097837984</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="B18" s="1" t="s">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="M18" s="26">
+      <c r="M18" s="37">
         <f>M13/M3</f>
         <v>0.30701213188140852</v>
       </c>
-      <c r="N18" s="26">
+      <c r="N18" s="37">
         <f>N13/N3</f>
         <v>-0.29699372113973821</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="B20" s="1" t="s">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G20" s="1"/>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="B21" s="1" t="s">
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="M21" s="17">
+      <c r="M21" s="36">
         <v>0</v>
       </c>
-      <c r="N21" s="26">
+      <c r="N21" s="37">
         <f>N3/M3-1</f>
         <v>-9.4228099719593006E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="B22" s="1" t="s">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="M22" s="17">
+      <c r="M22" s="36">
         <v>0</v>
       </c>
-      <c r="N22" s="17">
+      <c r="N22" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="B23" s="1" t="s">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="M23" s="17">
+      <c r="M23" s="36">
         <v>0</v>
       </c>
-      <c r="N23" s="26">
+      <c r="N23" s="37">
         <f>N13/M13-1</f>
         <v>-1.8762147786133794</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="39" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="M27" s="25">
+      <c r="M27" s="35">
         <v>5.8861650000000001</v>
       </c>
-      <c r="N27" s="31">
+      <c r="N27" s="40">
         <v>6.4977650000000002</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="M28" s="31">
+      <c r="M28" s="40">
         <v>1.4301109999999999</v>
       </c>
-      <c r="N28" s="31">
+      <c r="N28" s="40">
         <v>3.069804</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="16"/>
-      <c r="B29" s="1" t="s">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="M29" s="31">
+      <c r="M29" s="40">
         <v>1.731827</v>
       </c>
-      <c r="N29" s="31">
+      <c r="N29" s="40">
         <v>1.8013250000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="16"/>
-      <c r="B30" s="1" t="s">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="M30" s="31">
+      <c r="M30" s="40">
         <v>1.0237529999999999</v>
       </c>
-      <c r="N30" s="31">
+      <c r="N30" s="40">
         <v>2.3930669999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="16"/>
-      <c r="B31" s="1" t="s">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="M31" s="31">
+      <c r="M31" s="40">
         <f>SUM(M27:M30)</f>
         <v>10.071856</v>
       </c>
-      <c r="N31" s="31">
+      <c r="N31" s="40">
         <f>SUM(N27:N30)</f>
         <v>13.761961000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="16"/>
-      <c r="B32" s="1" t="s">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="M32" s="31">
+      <c r="M32" s="40">
         <v>1.101588</v>
       </c>
-      <c r="N32" s="31">
+      <c r="N32" s="40">
         <v>2.2178119999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="16"/>
-      <c r="B33" s="1" t="s">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="M33" s="31">
+      <c r="M33" s="40">
         <v>3.1478350000000002</v>
       </c>
-      <c r="N33" s="31">
+      <c r="N33" s="40">
         <v>4.1278280000000001</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="32">
+      <c r="C34" s="1"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="42">
         <v>0.282692</v>
       </c>
-      <c r="N34" s="32">
+      <c r="N34" s="42">
         <v>0.23777899999999999</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M35" s="31">
+      <c r="M35" s="40">
         <f>M31+M32+M33+M34</f>
         <v>14.603971000000001</v>
       </c>
-      <c r="N35" s="31">
+      <c r="N35" s="40">
         <f>N31+N32+N33+N34</f>
         <v>20.345380000000002</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="M36" s="31"/>
-      <c r="N36" s="31"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="40"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="32">
+      <c r="C37" s="1"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="42">
         <v>0.13148699999999999</v>
       </c>
-      <c r="N37" s="32">
+      <c r="N37" s="42">
         <v>0.71189599999999997</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="M38" s="31">
+      <c r="M38" s="40">
         <v>1.70357</v>
       </c>
-      <c r="N38" s="31">
+      <c r="N38" s="40">
         <v>1.752065</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="B39" s="1" t="s">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B39" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="1"/>
-      <c r="M39" s="31">
+      <c r="D39" s="41"/>
+      <c r="F39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="M39" s="40">
         <v>0.759911</v>
       </c>
-      <c r="N39" s="31">
+      <c r="N39" s="40">
         <v>1.032967</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="M40" s="31">
+      <c r="M40" s="40">
         <v>0.15549499999999999</v>
       </c>
-      <c r="N40" s="31">
+      <c r="N40" s="40">
         <v>0.14727699999999999</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M41" s="31">
+      <c r="M41" s="40">
         <f>SUM(M37:M40)</f>
         <v>2.7504629999999999</v>
       </c>
-      <c r="N41" s="33">
+      <c r="N41" s="43">
         <f>SUM(N37:N40)</f>
         <v>3.6442049999999995</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C42" s="16"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="16"/>
-      <c r="L42" s="16"/>
-      <c r="M42" s="32">
+      <c r="C42" s="1"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="42">
         <v>8.5678000000000004E-2</v>
       </c>
-      <c r="N42" s="32">
+      <c r="N42" s="42">
         <v>0.205704</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="M43" s="31">
+      <c r="M43" s="40">
         <v>8.7017999999999998E-2</v>
       </c>
-      <c r="N43" s="31">
+      <c r="N43" s="40">
         <v>0.17264599999999999</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="M44" s="31">
+      <c r="M44" s="40">
         <v>8.5585989999999992</v>
       </c>
-      <c r="N44" s="31">
+      <c r="N44" s="40">
         <v>15.385433000000001</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="M45" s="31">
+      <c r="M45" s="40">
         <f>M41+M42+M43+M44</f>
         <v>11.481757999999999</v>
       </c>
-      <c r="N45" s="31">
+      <c r="N45" s="40">
         <f>N41+N42+N43+N44</f>
         <v>19.407988</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="M46" s="31"/>
-      <c r="N46" s="31"/>
+      <c r="M46" s="40"/>
+      <c r="N46" s="40"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="M47" s="31">
+      <c r="M47" s="40">
         <v>3.1222129999999999</v>
       </c>
-      <c r="N47" s="31">
+      <c r="N47" s="40">
         <v>0.937392</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="B48" s="1" t="s">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B48" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="1"/>
-      <c r="M48" s="31">
+      <c r="D48" s="41"/>
+      <c r="F48" s="41"/>
+      <c r="H48" s="41"/>
+      <c r="M48" s="40">
         <f>M45+M47</f>
         <v>14.603971</v>
       </c>
-      <c r="N48" s="31">
+      <c r="N48" s="40">
         <f>N45+N47</f>
         <v>20.345379999999999</v>
       </c>
